--- a/bd/M_Kolomenskaya1_1_10_31_W.xlsx
+++ b/bd/M_Kolomenskaya1_1_10_31_W.xlsx
@@ -390,7 +390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" view="normal" workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
@@ -400,158 +400,158 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>331</v>
+        <v>334.34375</v>
       </c>
       <c r="B1" t="n">
-        <v>507.5</v>
+        <v>505.203125</v>
       </c>
       <c r="C1" t="n">
-        <v>149.5</v>
+        <v>148.765625</v>
       </c>
       <c r="D1" t="n">
-        <v>166.5</v>
+        <v>162.953125</v>
       </c>
       <c r="E1" t="b">
         <v>0</v>
       </c>
       <c r="F1" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G1" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="H1" t="n">
-        <v>0.8952208550798743</v>
+        <v>0.9833846605922767</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>272</v>
+        <v>271.71875</v>
       </c>
       <c r="B2" t="n">
-        <v>335.5</v>
+        <v>331.609375</v>
       </c>
       <c r="C2" t="n">
-        <v>91.5</v>
+        <v>91.421875</v>
       </c>
       <c r="D2" t="n">
-        <v>83</v>
+        <v>76.8125</v>
       </c>
       <c r="E2" t="b">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G2" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="H2" t="n">
-        <v>0.920568029915201</v>
+        <v>0.7938648297392692</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>251.5</v>
+        <v>251.453125</v>
       </c>
       <c r="B3" t="n">
-        <v>465.5</v>
+        <v>456.671875</v>
       </c>
       <c r="C3" t="n">
-        <v>94</v>
+        <v>99.4375</v>
       </c>
       <c r="D3" t="n">
-        <v>106.5</v>
+        <v>111.515625</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G3" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7770480163308778</v>
+        <v>0.9018245020351059</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>364.5</v>
+        <v>365.296875</v>
       </c>
       <c r="B4" t="n">
-        <v>331.5</v>
+        <v>328.140625</v>
       </c>
       <c r="C4" t="n">
-        <v>95</v>
+        <v>92.65625</v>
       </c>
       <c r="D4" t="n">
-        <v>84.5</v>
+        <v>82.890625</v>
       </c>
       <c r="E4" t="b">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G4" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="H4" t="n">
-        <v>0.7999551468939224</v>
+        <v>0.9292695800816118</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>72.5</v>
+        <v>73.015625</v>
       </c>
       <c r="B5" t="n">
-        <v>392.5</v>
+        <v>389.421875</v>
       </c>
       <c r="C5" t="n">
-        <v>82</v>
+        <v>81.1875</v>
       </c>
       <c r="D5" t="n">
-        <v>60</v>
+        <v>59.53125</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G5" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9637143045903034</v>
+        <v>0.9461203393071395</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>121</v>
+        <v>125.65625</v>
       </c>
       <c r="B6" t="n">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C6" t="n">
-        <v>69.5</v>
+        <v>66.234375</v>
       </c>
       <c r="D6" t="n">
-        <v>62.5</v>
+        <v>57.515625</v>
       </c>
       <c r="E6" t="b">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G6" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="H6" t="n">
-        <v>0.7247870021795125</v>
+        <v>0.8687196700261717</v>
       </c>
     </row>
     <row r="7">
@@ -559,77 +559,77 @@
         <v>231</v>
       </c>
       <c r="B7" t="n">
-        <v>338</v>
+        <v>332.625</v>
       </c>
       <c r="C7" t="n">
-        <v>78.5</v>
+        <v>78.578125</v>
       </c>
       <c r="D7" t="n">
-        <v>59.5</v>
+        <v>62.578125</v>
       </c>
       <c r="E7" t="b">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G7" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="H7" t="n">
-        <v>0.7989347961786277</v>
+        <v>0.9132002967387376</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>450.5</v>
+        <v>450.6875</v>
       </c>
       <c r="B8" t="n">
-        <v>356.5</v>
+        <v>350.8125</v>
       </c>
       <c r="C8" t="n">
-        <v>120.5</v>
+        <v>123.5625</v>
       </c>
       <c r="D8" t="n">
-        <v>121.5</v>
+        <v>111.5625</v>
       </c>
       <c r="E8" t="b">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G8" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6567341399977383</v>
+        <v>0.832144307475959</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>178.5</v>
+        <v>179.578125</v>
       </c>
       <c r="B9" t="n">
-        <v>352</v>
+        <v>346.5625</v>
       </c>
       <c r="C9" t="n">
-        <v>77</v>
+        <v>77.15625</v>
       </c>
       <c r="D9" t="n">
-        <v>55.5</v>
+        <v>54.515625</v>
       </c>
       <c r="E9" t="b">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G9" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="H9" t="n">
-        <v>0.7500438900054802</v>
+        <v>0.894840968160348</v>
       </c>
     </row>
     <row r="10">
@@ -646,7 +646,7 @@
         <v>56</v>
       </c>
       <c r="E10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -655,32 +655,188 @@
         <v>5</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>0.09504615784683396</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1534</v>
+        <v>1536.75</v>
       </c>
       <c r="B11" t="n">
-        <v>166</v>
+        <v>168.25</v>
       </c>
       <c r="C11" t="n">
-        <v>52</v>
+        <v>48.25</v>
       </c>
       <c r="D11" t="n">
-        <v>46</v>
+        <v>45.75</v>
       </c>
       <c r="E11" t="b">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G11" t="n">
+        <v>7</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.8624714729426878</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>194.5</v>
+      </c>
+      <c r="B12" t="n">
+        <v>200.5</v>
+      </c>
+      <c r="C12" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="D12" t="n">
+        <v>60.5</v>
+      </c>
+      <c r="E12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" t="n">
+        <v>6</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.8805970149253731</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>1500</v>
+      </c>
+      <c r="B13" t="n">
+        <v>131</v>
+      </c>
+      <c r="C13" t="n">
+        <v>35</v>
+      </c>
+      <c r="D13" t="n">
+        <v>40</v>
+      </c>
+      <c r="E13" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
         <v>5</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1567</v>
+      </c>
+      <c r="B14" t="n">
+        <v>214</v>
+      </c>
+      <c r="C14" t="n">
+        <v>44</v>
+      </c>
+      <c r="D14" t="n">
+        <v>45</v>
+      </c>
+      <c r="E14" t="b">
+        <v>1</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>5</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.008276533592989289</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>1456</v>
+      </c>
+      <c r="B15" t="n">
+        <v>100</v>
+      </c>
+      <c r="C15" t="n">
+        <v>45</v>
+      </c>
+      <c r="D15" t="n">
+        <v>49</v>
+      </c>
+      <c r="E15" t="b">
+        <v>1</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>5</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>310</v>
+      </c>
+      <c r="B16" t="n">
+        <v>408</v>
+      </c>
+      <c r="C16" t="n">
+        <v>98</v>
+      </c>
+      <c r="D16" t="n">
+        <v>89</v>
+      </c>
+      <c r="E16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>5</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.1327106708659998</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>84</v>
+      </c>
+      <c r="B17" t="n">
+        <v>312</v>
+      </c>
+      <c r="C17" t="n">
+        <v>66</v>
+      </c>
+      <c r="D17" t="n">
+        <v>78</v>
+      </c>
+      <c r="E17" t="b">
+        <v>1</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>5</v>
+      </c>
+      <c r="H17" t="n">
         <v>0</v>
       </c>
     </row>
